--- a/natmiOut/OldD0/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H2">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6229184427431</v>
+        <v>12.98318866666667</v>
       </c>
       <c r="N2">
-        <v>10.6229184427431</v>
+        <v>38.949566</v>
       </c>
       <c r="O2">
-        <v>0.186947174556007</v>
+        <v>0.2170149059254416</v>
       </c>
       <c r="P2">
-        <v>0.186947174556007</v>
+        <v>0.2170149059254416</v>
       </c>
       <c r="Q2">
-        <v>859.8854977907461</v>
+        <v>1075.403861711528</v>
       </c>
       <c r="R2">
-        <v>859.8854977907461</v>
+        <v>9678.634755403757</v>
       </c>
       <c r="S2">
-        <v>0.0585251119407969</v>
+        <v>0.06873810470049362</v>
       </c>
       <c r="T2">
-        <v>0.0585251119407969</v>
+        <v>0.06873810470049363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H3">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I3">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J3">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.02212846358585</v>
+        <v>2.096730333333333</v>
       </c>
       <c r="N3">
-        <v>2.02212846358585</v>
+        <v>6.290191</v>
       </c>
       <c r="O3">
-        <v>0.03558637910045341</v>
+        <v>0.03504699405682875</v>
       </c>
       <c r="P3">
-        <v>0.03558637910045341</v>
+        <v>0.03504699405682875</v>
       </c>
       <c r="Q3">
-        <v>163.6837324770381</v>
+        <v>173.6731981122229</v>
       </c>
       <c r="R3">
-        <v>163.6837324770381</v>
+        <v>1563.058783010006</v>
       </c>
       <c r="S3">
-        <v>0.01114056323861542</v>
+        <v>0.01110091464290264</v>
       </c>
       <c r="T3">
-        <v>0.01114056323861542</v>
+        <v>0.01110091464290264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H4">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I4">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J4">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>44.1780554912984</v>
+        <v>44.746334</v>
       </c>
       <c r="N4">
-        <v>44.1780554912984</v>
+        <v>134.239002</v>
       </c>
       <c r="O4">
-        <v>0.7774664463435396</v>
+        <v>0.7479381000177296</v>
       </c>
       <c r="P4">
-        <v>0.7774664463435396</v>
+        <v>0.7479381000177296</v>
       </c>
       <c r="Q4">
-        <v>3576.048281111803</v>
+        <v>3706.360711261881</v>
       </c>
       <c r="R4">
-        <v>3576.048281111803</v>
+        <v>33357.24640135693</v>
       </c>
       <c r="S4">
-        <v>0.2433912730188795</v>
+        <v>0.236904682695714</v>
       </c>
       <c r="T4">
-        <v>0.2433912730188795</v>
+        <v>0.2369046826957141</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H5">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I5">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J5">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.6229184427431</v>
+        <v>12.98318866666667</v>
       </c>
       <c r="N5">
-        <v>10.6229184427431</v>
+        <v>38.949566</v>
       </c>
       <c r="O5">
-        <v>0.186947174556007</v>
+        <v>0.2170149059254416</v>
       </c>
       <c r="P5">
-        <v>0.186947174556007</v>
+        <v>0.2170149059254416</v>
       </c>
       <c r="Q5">
-        <v>1615.012742105395</v>
+        <v>1984.499615802416</v>
       </c>
       <c r="R5">
-        <v>1615.012742105395</v>
+        <v>17860.49654222174</v>
       </c>
       <c r="S5">
-        <v>0.1099202181690158</v>
+        <v>0.1268460596301144</v>
       </c>
       <c r="T5">
-        <v>0.1099202181690158</v>
+        <v>0.1268460596301144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H6">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.02212846358585</v>
+        <v>2.096730333333333</v>
       </c>
       <c r="N6">
-        <v>2.02212846358585</v>
+        <v>6.290191</v>
       </c>
       <c r="O6">
-        <v>0.03558637910045341</v>
+        <v>0.03504699405682875</v>
       </c>
       <c r="P6">
-        <v>0.03558637910045341</v>
+        <v>0.03504699405682875</v>
       </c>
       <c r="Q6">
-        <v>307.4261797704108</v>
+        <v>320.4883367076237</v>
       </c>
       <c r="R6">
-        <v>307.4261797704108</v>
+        <v>2884.395030368613</v>
       </c>
       <c r="S6">
-        <v>0.02092389234476106</v>
+        <v>0.02048510483199758</v>
       </c>
       <c r="T6">
-        <v>0.02092389234476106</v>
+        <v>0.02048510483199759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H7">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I7">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J7">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.1780554912984</v>
+        <v>44.746334</v>
       </c>
       <c r="N7">
-        <v>44.1780554912984</v>
+        <v>134.239002</v>
       </c>
       <c r="O7">
-        <v>0.7774664463435396</v>
+        <v>0.7479381000177296</v>
       </c>
       <c r="P7">
-        <v>0.7774664463435396</v>
+        <v>0.7479381000177296</v>
       </c>
       <c r="Q7">
-        <v>6716.433240493022</v>
+        <v>6839.543421220654</v>
       </c>
       <c r="R7">
-        <v>6716.433240493022</v>
+        <v>61555.89079098588</v>
       </c>
       <c r="S7">
-        <v>0.4571306391986619</v>
+        <v>0.4371727390333192</v>
       </c>
       <c r="T7">
-        <v>0.4571306391986619</v>
+        <v>0.4371727390333193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H8">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I8">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J8">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6229184427431</v>
+        <v>12.98318866666667</v>
       </c>
       <c r="N8">
-        <v>10.6229184427431</v>
+        <v>38.949566</v>
       </c>
       <c r="O8">
-        <v>0.186947174556007</v>
+        <v>0.2170149059254416</v>
       </c>
       <c r="P8">
-        <v>0.186947174556007</v>
+        <v>0.2170149059254416</v>
       </c>
       <c r="Q8">
-        <v>271.8400220704659</v>
+        <v>335.282771773316</v>
       </c>
       <c r="R8">
-        <v>271.8400220704659</v>
+        <v>3017.544945959844</v>
       </c>
       <c r="S8">
-        <v>0.01850184444619428</v>
+        <v>0.02143074159483357</v>
       </c>
       <c r="T8">
-        <v>0.01850184444619428</v>
+        <v>0.02143074159483357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H9">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I9">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J9">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.02212846358585</v>
+        <v>2.096730333333333</v>
       </c>
       <c r="N9">
-        <v>2.02212846358585</v>
+        <v>6.290191</v>
       </c>
       <c r="O9">
-        <v>0.03558637910045341</v>
+        <v>0.03504699405682875</v>
       </c>
       <c r="P9">
-        <v>0.03558637910045341</v>
+        <v>0.03504699405682875</v>
       </c>
       <c r="Q9">
-        <v>51.74617965235455</v>
+        <v>54.14675669206599</v>
       </c>
       <c r="R9">
-        <v>51.74617965235455</v>
+        <v>487.3208102285939</v>
       </c>
       <c r="S9">
-        <v>0.003521923517076937</v>
+        <v>0.003460974581928532</v>
       </c>
       <c r="T9">
-        <v>0.003521923517076937</v>
+        <v>0.003460974581928533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H10">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I10">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J10">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.1780554912984</v>
+        <v>44.746334</v>
       </c>
       <c r="N10">
-        <v>44.1780554912984</v>
+        <v>134.239002</v>
       </c>
       <c r="O10">
-        <v>0.7774664463435396</v>
+        <v>0.7479381000177296</v>
       </c>
       <c r="P10">
-        <v>0.7774664463435396</v>
+        <v>0.7479381000177296</v>
       </c>
       <c r="Q10">
-        <v>1130.514523340698</v>
+        <v>1155.546243330252</v>
       </c>
       <c r="R10">
-        <v>1130.514523340698</v>
+        <v>10399.91618997227</v>
       </c>
       <c r="S10">
-        <v>0.07694453412599819</v>
+        <v>0.07386067828869639</v>
       </c>
       <c r="T10">
-        <v>0.07694453412599819</v>
+        <v>0.07386067828869639</v>
       </c>
     </row>
   </sheetData>
